--- a/SubwayData/Excel/9호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/9호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4240BE6E-623C-2842-9F1A-AAFB3C98C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828143C-AE0A-CC4B-8A21-F58AE3FAB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{8ED0B8A7-6605-334C-874F-7C7877314774}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>신방화</t>
   </si>
   <si>
-    <t>마곡나루(서울식물원)</t>
-  </si>
-  <si>
     <t>양천향교</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>노들</t>
   </si>
   <si>
-    <t>흑석(중앙대입구)</t>
-  </si>
-  <si>
-    <t>동작(현충원)</t>
-  </si>
-  <si>
     <t>구반포</t>
   </si>
   <si>
@@ -129,12 +120,6 @@
     <t>사평</t>
   </si>
   <si>
-    <t>신논현(르메르디앙호텔)</t>
-  </si>
-  <si>
-    <t>언주(강남차병원)</t>
-  </si>
-  <si>
     <t>선정릉</t>
   </si>
   <si>
@@ -162,13 +147,34 @@
     <t>한성백제</t>
   </si>
   <si>
-    <t>올림픽공원(한국체대)</t>
-  </si>
-  <si>
     <t>둔촌오륜</t>
   </si>
   <si>
     <t>중앙보훈병원</t>
+  </si>
+  <si>
+    <t>마곡나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신논현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B34A7-C69B-AB44-96D1-EF6A3B61EE67}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -667,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>0.9</v>
@@ -681,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>1.4</v>
@@ -695,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>1.3</v>
@@ -709,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>0.7</v>
@@ -723,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -737,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0.9</v>
@@ -751,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0.9</v>
@@ -765,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>1.2</v>
@@ -779,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -793,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>1.5</v>
@@ -807,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>0.9</v>
@@ -821,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
@@ -835,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>1.2</v>
@@ -849,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>1.1000000000000001</v>
@@ -863,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3">
         <v>1.1000000000000001</v>
@@ -877,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3">
         <v>1.4</v>
@@ -891,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
         <v>0.7</v>
@@ -919,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
         <v>0.8</v>
@@ -933,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3">
         <v>1.1000000000000001</v>
@@ -947,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>0.9</v>
@@ -961,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3">
         <v>0.8</v>
@@ -975,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
         <v>0.9</v>
@@ -989,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3">
         <v>0.8</v>
@@ -1003,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>0.8</v>
@@ -1017,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>1.4</v>
@@ -1031,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>1.4</v>
@@ -1045,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>0.8</v>
@@ -1059,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1073,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>0.8</v>
@@ -1087,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>0.8</v>
@@ -1101,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3">
         <v>1.4</v>
@@ -1115,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3">
         <v>1.7</v>
